--- a/teaching/traditional_assets/database/data/malta/malta_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/malta/malta_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.105</v>
+        <v>0.09539999999999998</v>
       </c>
       <c r="E2">
-        <v>0.197</v>
+        <v>0.178</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,41 +603,38 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005950959494738577</v>
+        <v>2.725496231534034e-05</v>
       </c>
       <c r="J2">
-        <v>0.0003875656531699998</v>
+        <v>1.758716436197433e-05</v>
       </c>
       <c r="K2">
-        <v>9.699999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="L2">
-        <v>0.1520376175548589</v>
+        <v>0.1446776611694153</v>
       </c>
       <c r="M2">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01456483126110124</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1690721649484536</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01456483126110124</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1690721649484536</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
@@ -645,49 +642,49 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.08376511226252159</v>
+        <v>0.0760441292356186</v>
       </c>
       <c r="X2">
-        <v>0.04843304552942108</v>
+        <v>0.04045678164711175</v>
       </c>
       <c r="Y2">
-        <v>0.03533206673310051</v>
+        <v>0.03558734758850685</v>
       </c>
       <c r="Z2">
-        <v>0.5197549047363784</v>
+        <v>0.4976092729159322</v>
       </c>
       <c r="AA2">
-        <v>0.0002014391491424655</v>
+        <v>8.751536070815042e-06</v>
       </c>
       <c r="AB2">
-        <v>0.04728064352512668</v>
+        <v>0.03917622514009786</v>
       </c>
       <c r="AC2">
-        <v>-0.04707920437598422</v>
+        <v>-0.03916747360402704</v>
       </c>
       <c r="AD2">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="AE2">
-        <v>0.3001643921178394</v>
+        <v>0.220910470067834</v>
       </c>
       <c r="AF2">
-        <v>7.220164392117839</v>
+        <v>7.480910470067834</v>
       </c>
       <c r="AG2">
-        <v>7.220164392117839</v>
+        <v>7.480910470067834</v>
       </c>
       <c r="AH2">
-        <v>0.06025834156335714</v>
+        <v>0.05542198851686316</v>
       </c>
       <c r="AI2">
-        <v>0.05066065158508302</v>
+        <v>0.04941779281706074</v>
       </c>
       <c r="AJ2">
-        <v>0.06025834156335714</v>
+        <v>0.05542198851686316</v>
       </c>
       <c r="AK2">
-        <v>0.05066065158508302</v>
+        <v>0.04941779281706074</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>70.61224489795919</v>
+        <v>157.8260869565217</v>
       </c>
       <c r="AP2">
-        <v>73.6751468583453</v>
+        <v>162.6284884797355</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.105</v>
+        <v>0.09539999999999998</v>
       </c>
       <c r="E3">
-        <v>0.197</v>
+        <v>0.178</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,41 +728,38 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005950959494738577</v>
+        <v>2.725496231534034e-05</v>
       </c>
       <c r="J3">
-        <v>0.0003875656531699998</v>
+        <v>1.758716436197433e-05</v>
       </c>
       <c r="K3">
-        <v>9.699999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="L3">
-        <v>0.1520376175548589</v>
+        <v>0.1446776611694153</v>
       </c>
       <c r="M3">
-        <v>1.64</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.01456483126110124</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1690721649484536</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>1.64</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.01456483126110124</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.1690721649484536</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -773,49 +767,49 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.08376511226252159</v>
+        <v>0.0760441292356186</v>
       </c>
       <c r="X3">
-        <v>0.04843304552942108</v>
+        <v>0.04045678164711175</v>
       </c>
       <c r="Y3">
-        <v>0.03533206673310051</v>
+        <v>0.03558734758850685</v>
       </c>
       <c r="Z3">
-        <v>0.5197549047363784</v>
+        <v>0.4976092729159322</v>
       </c>
       <c r="AA3">
-        <v>0.0002014391491424655</v>
+        <v>8.751536070815042e-06</v>
       </c>
       <c r="AB3">
-        <v>0.04728064352512668</v>
+        <v>0.03917622514009786</v>
       </c>
       <c r="AC3">
-        <v>-0.04707920437598422</v>
+        <v>-0.03916747360402704</v>
       </c>
       <c r="AD3">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="AE3">
-        <v>0.3001643921178394</v>
+        <v>0.220910470067834</v>
       </c>
       <c r="AF3">
-        <v>7.220164392117839</v>
+        <v>7.480910470067834</v>
       </c>
       <c r="AG3">
-        <v>7.220164392117839</v>
+        <v>7.480910470067834</v>
       </c>
       <c r="AH3">
-        <v>0.06025834156335714</v>
+        <v>0.05542198851686316</v>
       </c>
       <c r="AI3">
-        <v>0.05066065158508302</v>
+        <v>0.04941779281706074</v>
       </c>
       <c r="AJ3">
-        <v>0.06025834156335714</v>
+        <v>0.05542198851686316</v>
       </c>
       <c r="AK3">
-        <v>0.05066065158508302</v>
+        <v>0.04941779281706074</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>70.61224489795919</v>
+        <v>157.8260869565217</v>
       </c>
       <c r="AP3">
-        <v>73.6751468583453</v>
+        <v>162.6284884797355</v>
       </c>
     </row>
   </sheetData>
